--- a/Assignment status.xlsx
+++ b/Assignment status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -37,7 +37,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>no</t>
+    <t>yes</t>
   </si>
   <si>
     <t>bhagavan</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Nitisha</t>
+  </si>
+  <si>
+    <t>inprogress</t>
   </si>
   <si>
     <t>Haritha</t>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1268,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1285,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1302,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1331,9 +1334,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>11</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1350,12 +1365,12 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>35</v>
@@ -1372,7 +1387,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>36</v>
@@ -1389,7 +1404,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -1406,7 +1421,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -1423,27 +1438,27 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
